--- a/config_aomi_8.3/game_module_config.xlsx
+++ b/config_aomi_8.3/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="1019">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3863,10 +3863,6 @@
   </si>
   <si>
     <t>act_ty_by_hhl_style/act_011_hhl</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_016_dlphb</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -4563,7 +4559,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C314" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B317" sqref="B317"/>
+      <selection pane="bottomRight" activeCell="H338" sqref="H338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12631,7 +12627,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="48" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C317" s="41" t="s">
         <v>928</v>
@@ -12654,10 +12650,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="48" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C318" s="57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E318" s="7">
         <v>1</v>
@@ -12723,7 +12719,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="52" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C321" s="41" t="s">
         <v>934</v>
@@ -13151,19 +13147,19 @@
         <v>337</v>
       </c>
       <c r="B338" s="59" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C338" s="60" t="s">
         <v>983</v>
       </c>
       <c r="E338" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F338" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G338" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I338" s="61">
         <v>44354</v>

--- a/config_aomi_8.3/game_module_config.xlsx
+++ b/config_aomi_8.3/game_module_config.xlsx
@@ -3862,10 +3862,6 @@
 </t>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_011_hhl</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>欢乐券掉落</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -3883,6 +3879,10 @@
   </si>
   <si>
     <t>act_ty_sjb_style/act_024_dlphb</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_014_hhl</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -4559,7 +4559,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C314" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H338" sqref="H338"/>
+      <selection pane="bottomRight" activeCell="D328" sqref="D328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12627,7 +12627,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="48" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C317" s="41" t="s">
         <v>928</v>
@@ -12650,10 +12650,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="48" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C318" s="57" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E318" s="7">
         <v>1</v>
@@ -12673,7 +12673,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="48" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="C319" s="41" t="s">
         <v>930</v>
@@ -12719,7 +12719,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="52" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C321" s="41" t="s">
         <v>934</v>
@@ -13147,7 +13147,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="59" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C338" s="60" t="s">
         <v>983</v>
